--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_12.20.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_12.20.19.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/s1cDNASample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D82477-D7B7-9E45-AD2C-2FA0169FA1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="17180" yWindow="460" windowWidth="21220" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -55,34 +64,36 @@
     <t>NEBNextPoly(A)E7490</t>
   </si>
   <si>
-    <t>E7760</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>E7420</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -92,51 +103,52 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -326,20 +338,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -387,7 +404,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -395,7 +412,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
@@ -404,19 +421,19 @@
         <v>11</v>
       </c>
       <c r="F2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -435,7 +452,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -443,7 +460,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
@@ -452,22 +469,22 @@
         <v>11</v>
       </c>
       <c r="F3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
+      <c r="H3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -475,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>12</v>
@@ -484,22 +501,22 @@
         <v>11</v>
       </c>
       <c r="F4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
+      <c r="H4" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -507,7 +524,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>12</v>
@@ -516,22 +533,22 @@
         <v>11</v>
       </c>
       <c r="F5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
+      <c r="H5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -539,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -548,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="F6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -571,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>12</v>
@@ -580,22 +597,22 @@
         <v>11</v>
       </c>
       <c r="F7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
+      <c r="H7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -603,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
@@ -612,22 +629,22 @@
         <v>11</v>
       </c>
       <c r="F8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -635,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>12</v>
@@ -644,22 +661,22 @@
         <v>11</v>
       </c>
       <c r="F9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
+      <c r="H9" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -667,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>12</v>
@@ -676,22 +693,22 @@
         <v>11</v>
       </c>
       <c r="F10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
+      <c r="H10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -699,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>12</v>
@@ -708,22 +725,22 @@
         <v>11</v>
       </c>
       <c r="F11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
+      <c r="H11" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -731,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>12</v>
@@ -740,22 +757,22 @@
         <v>11</v>
       </c>
       <c r="F12" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -763,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>12</v>
@@ -772,22 +789,22 @@
         <v>11</v>
       </c>
       <c r="F13" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -795,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>12</v>
@@ -804,22 +821,22 @@
         <v>11</v>
       </c>
       <c r="F14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
+      <c r="H14" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -827,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>12</v>
@@ -836,22 +853,22 @@
         <v>11</v>
       </c>
       <c r="F15" s="5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
+      <c r="H15" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -859,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>12</v>
@@ -868,22 +885,22 @@
         <v>11</v>
       </c>
       <c r="F16" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
+      <c r="H16" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -891,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>12</v>
@@ -900,22 +917,22 @@
         <v>11</v>
       </c>
       <c r="F17" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>14</v>
+      <c r="H17" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>12</v>
@@ -932,22 +949,22 @@
         <v>11</v>
       </c>
       <c r="F18" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>14</v>
+      <c r="H18" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -955,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="5">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>12</v>
@@ -964,22 +981,22 @@
         <v>11</v>
       </c>
       <c r="F19" s="5">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>14</v>
+      <c r="H19" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>12</v>
@@ -996,22 +1013,22 @@
         <v>11</v>
       </c>
       <c r="F20" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>14</v>
+      <c r="H20" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>12</v>
@@ -1028,22 +1045,22 @@
         <v>11</v>
       </c>
       <c r="F21" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>14</v>
+      <c r="H21" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>12</v>
@@ -1060,22 +1077,22 @@
         <v>11</v>
       </c>
       <c r="F22" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>14</v>
+      <c r="H22" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>12</v>
@@ -1092,22 +1109,22 @@
         <v>11</v>
       </c>
       <c r="F23" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>14</v>
+      <c r="H23" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1115,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="5">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>12</v>
@@ -1124,22 +1141,22 @@
         <v>11</v>
       </c>
       <c r="F24" s="5">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>14</v>
+      <c r="H24" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="5">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>12</v>
@@ -1156,22 +1173,22 @@
         <v>11</v>
       </c>
       <c r="F25" s="5">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>14</v>
+      <c r="H25" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>12</v>
@@ -1188,22 +1205,22 @@
         <v>11</v>
       </c>
       <c r="F26" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>14</v>
+      <c r="H26" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>12</v>
@@ -1220,22 +1237,22 @@
         <v>11</v>
       </c>
       <c r="F27" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>14</v>
+      <c r="H27" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1243,7 +1260,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>12</v>
@@ -1252,22 +1269,22 @@
         <v>11</v>
       </c>
       <c r="F28" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>14</v>
+      <c r="H28" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1275,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>12</v>
@@ -1284,22 +1301,22 @@
         <v>11</v>
       </c>
       <c r="F29" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>14</v>
+      <c r="H29" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_12.20.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_12.20.19.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">12.20.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
@@ -78,7 +78,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -111,6 +111,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -157,7 +164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,6 +179,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -202,12 +213,14 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I29"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -277,13 +290,14 @@
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="b">
+      <c r="I2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -313,7 +327,7 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -322,16 +336,17 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="b">
+      <c r="I3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -345,7 +360,7 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -354,16 +369,17 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="b">
+      <c r="I4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -389,13 +405,14 @@
       <c r="F5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4" t="b">
+      <c r="I5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -409,7 +426,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -418,16 +435,17 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4" t="b">
+      <c r="I6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -441,7 +459,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -450,16 +468,17 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4" t="b">
+      <c r="I7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -485,13 +504,14 @@
       <c r="F8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4" t="b">
+      <c r="I8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -505,7 +525,7 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="6" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -514,16 +534,17 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="4" t="b">
+      <c r="I9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -537,7 +558,7 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="6" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -546,16 +567,17 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="4" t="b">
+      <c r="I10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -581,13 +603,14 @@
       <c r="F11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="4" t="b">
+      <c r="I11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -601,7 +624,7 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="6" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -610,16 +633,17 @@
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="4" t="b">
+      <c r="I12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -633,7 +657,7 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="6" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -642,16 +666,17 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="4" t="b">
+      <c r="I13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -677,13 +702,14 @@
       <c r="F14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="4" t="b">
+      <c r="I14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -697,7 +723,7 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="6" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -706,16 +732,17 @@
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="4" t="b">
+      <c r="I15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -729,7 +756,7 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -738,16 +765,17 @@
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="4" t="b">
+      <c r="I16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -773,13 +801,14 @@
       <c r="F17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="4" t="b">
+      <c r="I17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -793,7 +822,7 @@
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="6" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -802,16 +831,17 @@
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="4" t="b">
+      <c r="I18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -825,7 +855,7 @@
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="6" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -834,16 +864,17 @@
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="4" t="b">
+      <c r="I19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -869,13 +900,14 @@
       <c r="F20" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="4" t="b">
+      <c r="I20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -889,7 +921,7 @@
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="6" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -898,16 +930,17 @@
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="4" t="b">
+      <c r="I21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -921,7 +954,7 @@
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="6" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -930,16 +963,17 @@
       <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="4" t="b">
+      <c r="I22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -965,13 +999,14 @@
       <c r="F23" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="4" t="b">
+      <c r="I23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -985,7 +1020,7 @@
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="6" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -994,16 +1029,17 @@
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="4" t="b">
+      <c r="I24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1017,7 +1053,7 @@
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="6" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1026,16 +1062,17 @@
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="4" t="b">
+      <c r="I25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1061,13 +1098,14 @@
       <c r="F26" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="4" t="b">
+      <c r="I26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1081,7 +1119,7 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="6" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1090,16 +1128,17 @@
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="4" t="b">
+      <c r="I27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1113,7 +1152,7 @@
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="6" t="n">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1122,16 +1161,17 @@
       <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="4" t="b">
+      <c r="I28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1157,13 +1197,14 @@
       <c r="F29" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="4" t="b">
+      <c r="I29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_12.20.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_12.20.19.xlsx
@@ -185,7 +185,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -213,10 +213,10 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G29"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.67"/>
@@ -296,8 +296,7 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -345,8 +344,7 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I3" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -378,8 +376,7 @@
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -411,8 +408,7 @@
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I5" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -444,8 +440,7 @@
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I6" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -477,8 +472,7 @@
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -510,8 +504,7 @@
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -543,8 +536,7 @@
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -576,8 +568,7 @@
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I10" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -609,8 +600,7 @@
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I11" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -642,8 +632,7 @@
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I12" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -675,8 +664,7 @@
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I13" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -708,8 +696,7 @@
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I14" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -741,8 +728,7 @@
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I15" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -774,8 +760,7 @@
       <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I16" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -807,8 +792,7 @@
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I17" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -840,8 +824,7 @@
       <c r="H18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I18" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -873,8 +856,7 @@
       <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I19" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -906,8 +888,7 @@
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I20" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -939,8 +920,7 @@
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I21" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -972,8 +952,7 @@
       <c r="H22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I22" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1005,8 +984,7 @@
       <c r="H23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I23" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1038,8 +1016,7 @@
       <c r="H24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I24" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1071,8 +1048,7 @@
       <c r="H25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I25" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1104,8 +1080,7 @@
       <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I26" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1137,8 +1112,7 @@
       <c r="H27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I27" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1170,8 +1144,7 @@
       <c r="H28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I28" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1203,8 +1176,7 @@
       <c r="H29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I29" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_12.20.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_12.20.19.xlsx
@@ -213,7 +213,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I29"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -296,7 +296,8 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -344,7 +345,8 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -376,7 +378,8 @@
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -408,7 +411,8 @@
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -440,7 +444,8 @@
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -472,7 +477,8 @@
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -504,7 +510,8 @@
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -536,7 +543,8 @@
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -568,7 +576,8 @@
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -600,7 +609,8 @@
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -632,7 +642,8 @@
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -664,7 +675,8 @@
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -696,7 +708,8 @@
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5" t="b">
+      <c r="I14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -728,7 +741,8 @@
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5" t="b">
+      <c r="I15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -760,7 +774,8 @@
       <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5" t="b">
+      <c r="I16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -792,7 +807,8 @@
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="5" t="b">
+      <c r="I17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -824,7 +840,8 @@
       <c r="H18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5" t="b">
+      <c r="I18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -856,7 +873,8 @@
       <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="5" t="b">
+      <c r="I19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -888,7 +906,8 @@
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="5" t="b">
+      <c r="I20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -920,7 +939,8 @@
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="5" t="b">
+      <c r="I21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -952,7 +972,8 @@
       <c r="H22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="5" t="b">
+      <c r="I22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -984,7 +1005,8 @@
       <c r="H23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="5" t="b">
+      <c r="I23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1016,7 +1038,8 @@
       <c r="H24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="5" t="b">
+      <c r="I24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1048,7 +1071,8 @@
       <c r="H25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="b">
+      <c r="I25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1080,7 +1104,8 @@
       <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="5" t="b">
+      <c r="I26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1112,7 +1137,8 @@
       <c r="H27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="5" t="b">
+      <c r="I27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1144,7 +1170,8 @@
       <c r="H28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="5" t="b">
+      <c r="I28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1176,7 +1203,8 @@
       <c r="H29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="5" t="b">
+      <c r="I29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_12.20.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_12.20.19.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -61,10 +61,10 @@
     <t xml:space="preserve">12.20.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -213,7 +213,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G29"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_12.20.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_12.20.19.xlsx
@@ -78,7 +78,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -100,6 +100,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -164,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,15 +180,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -245,7 +256,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -272,31 +283,31 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -327,7 +338,7 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -336,16 +347,16 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -360,7 +371,7 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -369,16 +380,16 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -393,7 +404,7 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -402,16 +413,16 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -426,7 +437,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -435,16 +446,16 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -459,7 +470,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -468,16 +479,16 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -492,7 +503,7 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -501,16 +512,16 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -525,7 +536,7 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -534,16 +545,16 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -558,7 +569,7 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -567,16 +578,16 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -591,7 +602,7 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -600,16 +611,16 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -624,7 +635,7 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -633,16 +644,16 @@
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -657,7 +668,7 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -666,16 +677,16 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -690,7 +701,7 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -699,16 +710,16 @@
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -723,7 +734,7 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -732,16 +743,16 @@
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -756,7 +767,7 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -765,16 +776,16 @@
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -789,7 +800,7 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -798,16 +809,16 @@
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -822,7 +833,7 @@
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="7" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -831,16 +842,16 @@
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="I18" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -855,7 +866,7 @@
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="7" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -864,16 +875,16 @@
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -888,7 +899,7 @@
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -897,16 +908,16 @@
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -921,7 +932,7 @@
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="7" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -930,16 +941,16 @@
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -954,7 +965,7 @@
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="7" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -963,16 +974,16 @@
       <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -987,7 +998,7 @@
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -996,16 +1007,16 @@
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1020,7 +1031,7 @@
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="7" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1029,16 +1040,16 @@
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="F24" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1053,7 +1064,7 @@
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="7" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1062,16 +1073,16 @@
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F25" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1086,7 +1097,7 @@
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4" t="n">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1095,16 +1106,16 @@
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="I26" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1119,7 +1130,7 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="7" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1128,16 +1139,16 @@
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F27" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="I27" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1152,7 +1163,7 @@
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="7" t="n">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1161,16 +1172,16 @@
       <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="I28" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1185,7 +1196,7 @@
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1194,16 +1205,16 @@
       <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I29" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
